--- a/GestStratEntr-J3b_Analyse interne_compétences-personnalité.xlsx
+++ b/GestStratEntr-J3b_Analyse interne_compétences-personnalité.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taro\OneDrive\Documents\Professionnel\HEIG-VD\Formation\2017-2018\GestEntr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\3eme\S5\GET\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_356F712ADAC93AB8C674126E6D905DFE42210D92" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3992380E-A0D1-4279-A9A9-B1D6CCA3E3E7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC23F5E-F317-47A8-A8BD-4764533D9CDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="468" windowWidth="27828" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="465" windowWidth="27825" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compétences" sheetId="2" r:id="rId1"/>
     <sheet name="Graphique Compétences" sheetId="3" r:id="rId2"/>
     <sheet name="Indice de personnalité complété" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,209 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
-  <si>
-    <t xml:space="preserve">Connaissance de l’environnement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche d’opportunités </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission et vision </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business model </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation commerciale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation de mise en œuvre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation financière </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définition des besoins </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification de sources </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseautage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatique et internet </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="160">
   <si>
     <t>Analyse et synthèse</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion de la connaissance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse d’opportunités </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etude de marché </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélection de marché </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conception de prestations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse de concurrence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positionnement </t>
-  </si>
-  <si>
     <t>Stratégie marketing</t>
   </si>
   <si>
-    <t xml:space="preserve">Stratégie commerciale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulation de l’offre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choix des canaux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion des ventes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prospection et acquisition </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suivi commercial </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fidélisation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphère d’influence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication institutionnelle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication dans les médias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseaux sociaux </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouvernance externe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliances et partenariats </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision stratégique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des risques </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratégie de développement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixation d’objectifs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesure de résultats </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de projets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point mort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planification financière </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créanciers et débiteurs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trésorerie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prise de décision </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relations financières </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualité </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressources </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Négociation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique RH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion RH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cahiers des charges </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management </t>
-  </si>
-  <si>
     <t xml:space="preserve">Leadership </t>
   </si>
   <si>
-    <t xml:space="preserve">Participation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de conflits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décision </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poursuite des objectifs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptabilité </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-confiance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respect </t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -274,9 +77,6 @@
     <t>11. Qualités d'entrepreneuriat social/sociétal</t>
   </si>
   <si>
-    <t xml:space="preserve">Intérêt collectif </t>
-  </si>
-  <si>
     <t>Profitabilité orientée impact</t>
   </si>
   <si>
@@ -290,9 +90,6 @@
   </si>
   <si>
     <t>Vision systémique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSE  </t>
   </si>
   <si>
     <t>Membre 4 équipe</t>
@@ -608,12 +405,225 @@
   <si>
     <t>Analyse interne : compétences</t>
   </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Connaissance de l’environnement</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Recherche d’opportunités</t>
+  </si>
+  <si>
+    <t>Mission et vision</t>
+  </si>
+  <si>
+    <t>Business model</t>
+  </si>
+  <si>
+    <t>Evaluation commerciale</t>
+  </si>
+  <si>
+    <t>Evaluation de mise en œuvre</t>
+  </si>
+  <si>
+    <t>Evaluation financière</t>
+  </si>
+  <si>
+    <t>Définition des besoins</t>
+  </si>
+  <si>
+    <t>Identification de sources</t>
+  </si>
+  <si>
+    <t>Réseautage</t>
+  </si>
+  <si>
+    <t>Informatique et internet</t>
+  </si>
+  <si>
+    <t>Gestion de la connaissance</t>
+  </si>
+  <si>
+    <t>Analyse d’opportunités</t>
+  </si>
+  <si>
+    <t>Etude de marché</t>
+  </si>
+  <si>
+    <t>Sélection de marché</t>
+  </si>
+  <si>
+    <t>Conception de prestations</t>
+  </si>
+  <si>
+    <t>Analyse de concurrence</t>
+  </si>
+  <si>
+    <t>Positionnement</t>
+  </si>
+  <si>
+    <t>Stratégie commerciale</t>
+  </si>
+  <si>
+    <t>Formulation de l’offre</t>
+  </si>
+  <si>
+    <t>Choix des canaux</t>
+  </si>
+  <si>
+    <t>Promotion des ventes</t>
+  </si>
+  <si>
+    <t>Prospection et acquisition</t>
+  </si>
+  <si>
+    <t>Suivi commercial</t>
+  </si>
+  <si>
+    <t>Fidélisation</t>
+  </si>
+  <si>
+    <t>Sphère d’influence</t>
+  </si>
+  <si>
+    <t>Communication institutionnelle</t>
+  </si>
+  <si>
+    <t>Communication dans les médias</t>
+  </si>
+  <si>
+    <t>Réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Gouvernance externe</t>
+  </si>
+  <si>
+    <t>Alliances et partenariats</t>
+  </si>
+  <si>
+    <t>Vision stratégique</t>
+  </si>
+  <si>
+    <t>Gestion des risques</t>
+  </si>
+  <si>
+    <t>Stratégie de développement</t>
+  </si>
+  <si>
+    <t>Fixation d’objectifs</t>
+  </si>
+  <si>
+    <t>Mesure de résultats</t>
+  </si>
+  <si>
+    <t>Gestion de projets</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Point mort</t>
+  </si>
+  <si>
+    <t>Planification financière</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Créanciers et débiteurs</t>
+  </si>
+  <si>
+    <t>Trésorerie</t>
+  </si>
+  <si>
+    <t>Prise de décision</t>
+  </si>
+  <si>
+    <t>Relations financières</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Qualité</t>
+  </si>
+  <si>
+    <t>Ressources</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Négociation</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Politique RH</t>
+  </si>
+  <si>
+    <t>Gestion RH</t>
+  </si>
+  <si>
+    <t>Cahiers des charges</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Participation</t>
+  </si>
+  <si>
+    <t>Gestion de conflits</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Décision</t>
+  </si>
+  <si>
+    <t>Poursuite des objectifs</t>
+  </si>
+  <si>
+    <t>Adaptabilité</t>
+  </si>
+  <si>
+    <t>Self-confiance</t>
+  </si>
+  <si>
+    <t>Respect</t>
+  </si>
+  <si>
+    <t>Intérêt collectif</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>Membre 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -672,8 +682,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,28 +739,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6D9F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </top>
-      <bottom style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,15 +782,137 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF548DD4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF548DD4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF548DD4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF548DD4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF548DD4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,24 +920,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -792,54 +940,90 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,37 +1094,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,37 +1249,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,37 +1559,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,37 +2024,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,37 +2277,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,37 +2448,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,29 +3088,128 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>0</c:v>
+                <c:pt idx="0">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,29 +3439,128 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.00">
-                  <c:v>0</c:v>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,6 +3752,289 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1CBD-49A6-9389-6591E17B20ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indice de personnalité complété'!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Membre 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Indice de personnalité complété'!$A$6:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1. Energie et dynamisme</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Energie</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ambition</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Leadership </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Confiance sur le plan social</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persuasion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Initiative</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flexibilité</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Multitâche</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2. Travailler avec les autres</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Personne extravertie</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Travail d'équipe</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Souci des autres</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Esprit égalitaire</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Le souci du service au client</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Le travail en équipe, de bonnes relations avec les collègues de travail</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Avoir une bonne influence sur les gens et sur les événements</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3. Style au travail</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Fiabilité</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Persévérance</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Respect des règles</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Souci du détail</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Planification</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4. La résolution de problèmes</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Innovation</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Raisonnement analytique</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5. Faire face à la pression et au stress</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maîtrise de soi</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Tolérance au stress</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6. Echelles spéciales</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Potentiel de gestion et leadership</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Potentiel de vente</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7. L'extériorisation</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Créativité et originalité</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Autonomie</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Enthousiasme</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Le développement professionnel</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8. Les récompenses externes</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>La gratification financière</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>La sécurité</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Le prestige</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Indice de personnalité complété'!$E$6:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C3E-4870-AD8A-87268AD7E482}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3456,7 +4121,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4103,7 +4768,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Graph1"/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4384,7 +5049,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299408" cy="6065921"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -4748,1486 +5413,1860 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A98" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="74.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="8" width="10.6640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="74.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19">
+        <v>12</v>
+      </c>
+      <c r="D11" s="19">
+        <v>9</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>11</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="33">
+        <v>18</v>
+      </c>
+      <c r="D19" s="19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>24</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="33">
+        <v>13</v>
+      </c>
+      <c r="D27" s="19">
+        <v>9</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>12</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="33">
+        <v>15</v>
+      </c>
+      <c r="D35" s="19">
+        <v>8</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>11</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="33">
+        <v>14</v>
+      </c>
+      <c r="D43" s="19">
+        <v>10</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19">
+        <v>8</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="33">
+        <v>15</v>
+      </c>
+      <c r="D50" s="19">
+        <v>10</v>
+      </c>
+      <c r="E50" s="19">
+        <v>0</v>
+      </c>
+      <c r="F50" s="19">
+        <v>13</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0</v>
+      </c>
+      <c r="I50" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="23"/>
+    </row>
+    <row r="58" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="33">
+        <v>12</v>
+      </c>
+      <c r="D58" s="19">
+        <v>12</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+      <c r="F58" s="19">
+        <v>9</v>
+      </c>
+      <c r="G58" s="19">
+        <v>0</v>
+      </c>
+      <c r="H58" s="19">
+        <v>0</v>
+      </c>
+      <c r="I58" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="21"/>
+      <c r="C62" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="23"/>
+    </row>
+    <row r="66" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="33">
+        <v>17</v>
+      </c>
+      <c r="D66" s="19">
+        <v>8</v>
+      </c>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+      <c r="F66" s="19">
+        <v>9</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+      <c r="I66" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="23"/>
+    </row>
+    <row r="74" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="33">
+        <v>17</v>
+      </c>
+      <c r="D74" s="19">
+        <v>13</v>
+      </c>
+      <c r="E74" s="19">
+        <v>0</v>
+      </c>
+      <c r="F74" s="19">
+        <v>10</v>
+      </c>
+      <c r="G74" s="19">
+        <v>0</v>
+      </c>
+      <c r="H74" s="19">
+        <v>0</v>
+      </c>
+      <c r="I74" s="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="33">
+        <v>19</v>
+      </c>
+      <c r="D82" s="19">
+        <v>18</v>
+      </c>
+      <c r="E82" s="19">
+        <v>0</v>
+      </c>
+      <c r="F82" s="19">
+        <v>15</v>
+      </c>
+      <c r="G82" s="19">
+        <v>0</v>
+      </c>
+      <c r="H82" s="19">
+        <v>0</v>
+      </c>
+      <c r="I82" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="22"/>
+    </row>
+    <row r="86" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="21"/>
+      <c r="C86" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="22"/>
+    </row>
+    <row r="87" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="B87" s="21"/>
+      <c r="C87" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3">
-        <f>COUNTIF(C12:C18,"N")*$C$6+COUNTIF(C12:C18,"P")*$C$7+COUNTIF(C12:C18,"M")*$C$8</f>
+      <c r="D87" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="22"/>
+    </row>
+    <row r="88" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="21"/>
+      <c r="C88" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="21"/>
+      <c r="C89" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="23"/>
+    </row>
+    <row r="90" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="33">
+        <v>16</v>
+      </c>
+      <c r="D90" s="19">
+        <v>13</v>
+      </c>
+      <c r="E90" s="19">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" ref="D11:H11" si="0">COUNTIF(D12:D18,"N")*$C$6+COUNTIF(D12:D18,"P")*$C$7+COUNTIF(D12:D18,"M")*$C$8</f>
+      <c r="F90" s="19">
+        <v>18</v>
+      </c>
+      <c r="G90" s="19">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="0"/>
+      <c r="H90" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <f>SUM(C11:H11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3">
-        <f>COUNTIF(C20:C26,"N")*$C$6+COUNTIF(C20:C26,"P")*$C$7+COUNTIF(C20:C26,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <f>COUNTIF(D20:D26,"N")*$C$6+COUNTIF(D20:D26,"P")*$C$7+COUNTIF(D20:D26,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19:H19" si="1">COUNTIF(E20:E26,"N")*$C$6+COUNTIF(E20:E26,"P")*$C$7+COUNTIF(E20:E26,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <f>SUM(C19:H19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="3">
-        <f>COUNTIF(C28:C34,"N")*$C$6+COUNTIF(C28:C34,"P")*$C$7+COUNTIF(C28:C34,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" ref="D27:H27" si="2">COUNTIF(D28:D34,"N")*$C$6+COUNTIF(D28:D34,"P")*$C$7+COUNTIF(D28:D34,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <f>SUM(C27:H27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="I90" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="B92" s="21"/>
+      <c r="C92" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="22"/>
+    </row>
+    <row r="93" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="B93" s="21"/>
+      <c r="C93" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="22"/>
+    </row>
+    <row r="94" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="B94" s="21"/>
+      <c r="C94" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="22"/>
+    </row>
+    <row r="95" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="3">
-        <f>COUNTIF(C36:C42,"N")*$C$6+COUNTIF(C36:C42,"P")*$C$7+COUNTIF(C36:C42,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" ref="D35:H35" si="3">COUNTIF(D36:D42,"N")*$C$6+COUNTIF(D36:D42,"P")*$C$7+COUNTIF(D36:D42,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <f>SUM(C35:H35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="B95" s="21"/>
+      <c r="C95" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="22"/>
+    </row>
+    <row r="96" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="3">
-        <f>COUNTIF(C44:C49,"N")*$C$6+COUNTIF(C44:C49,"P")*$C$7+COUNTIF(C44:C49,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" ref="D43:H43" si="4">COUNTIF(D44:D49,"N")*$C$6+COUNTIF(D44:D49,"P")*$C$7+COUNTIF(D44:D49,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <f>SUM(C43:H43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="3">
-        <f>COUNTIF(C51:C57,"N")*$C$6+COUNTIF(C51:C57,"P")*$C$7+COUNTIF(C51:C57,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="10">
-        <f t="shared" ref="D50:H50" si="5">COUNTIF(D51:D57,"N")*$C$6+COUNTIF(D51:D57,"P")*$C$7+COUNTIF(D51:D57,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="3">
-        <f>SUM(C50:H50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="3">
-        <f>COUNTIF(C59:C65,"N")*$C$6+COUNTIF(C59:C65,"P")*$C$7+COUNTIF(C59:C65,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" ref="D58:H58" si="6">COUNTIF(D59:D65,"N")*$C$6+COUNTIF(D59:D65,"P")*$C$7+COUNTIF(D59:D65,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <f>SUM(C58:H58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="3">
-        <f>COUNTIF(C67:C73,"N")*$C$6+COUNTIF(C67:C73,"P")*$C$7+COUNTIF(C67:C73,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" ref="D66:H66" si="7">COUNTIF(D67:D73,"N")*$C$6+COUNTIF(D67:D73,"P")*$C$7+COUNTIF(D67:D73,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <f>SUM(C66:H66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="3">
-        <f>COUNTIF(C75:C81,"N")*$C$6+COUNTIF(C75:C81,"P")*$C$7+COUNTIF(C75:C81,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <f t="shared" ref="D74:H74" si="8">COUNTIF(D75:D81,"N")*$C$6+COUNTIF(D75:D81,"P")*$C$7+COUNTIF(D75:D81,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="3">
-        <f>SUM(C74:H74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="3">
-        <f>COUNTIF(C83:C89,"N")*$C$6+COUNTIF(C83:C89,"P")*$C$7+COUNTIF(C83:C89,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
-        <f t="shared" ref="D82:H82" si="9">COUNTIF(D83:D89,"N")*$C$6+COUNTIF(D83:D89,"P")*$C$7+COUNTIF(D83:D89,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="3">
-        <f>SUM(C82:H82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="11"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" s="3">
-        <f>COUNTIF(C91:C97,"N")*$C$6+COUNTIF(C91:C97,"P")*$C$7+COUNTIF(C91:C97,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" ref="D90:H90" si="10">COUNTIF(D91:D97,"N")*$C$6+COUNTIF(D91:D97,"P")*$C$7+COUNTIF(D91:D97,"M")*$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="3">
-        <f>SUM(C90:H90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="11"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="22"/>
+    </row>
+    <row r="97" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:H18 C20:H26 C28:H34 C36:H42 C51:H57 C59:H65 C67:H73 C75:H81 C83:H89 C91:H97 C44:H49" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"N,P,M"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
@@ -6244,9 +7283,6 @@
     <brk id="97" max="16383" man="1"/>
     <brk id="129" max="16383" man="1"/>
   </rowBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="C50:H50" unlockedFormula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
@@ -6257,457 +7293,699 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="17"/>
+    <col min="2" max="3" width="10.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="18" t="e">
-        <f>AVERAGE(B7:B14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="18" t="e">
-        <f>AVERAGE(C7:C14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="18" t="e">
+        <v>40</v>
+      </c>
+      <c r="B6" s="25">
+        <v>6.88</v>
+      </c>
+      <c r="C6" s="25">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="e">
         <f>AVERAGE(D7:D14)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E6" s="28">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="26">
+        <v>7</v>
+      </c>
+      <c r="C7" s="26">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="26">
+        <v>8</v>
+      </c>
+      <c r="C8" s="26">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26">
+        <v>5</v>
+      </c>
+      <c r="C9" s="26">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="26">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="26">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="26">
+        <v>7</v>
+      </c>
+      <c r="C12" s="26">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="26">
+        <v>8</v>
+      </c>
+      <c r="C13" s="26">
+        <v>9</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="26">
+        <v>4</v>
+      </c>
+      <c r="C14" s="26">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="18" t="e">
-        <f>AVERAGE(B16:B22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15" s="18" t="e">
-        <f>AVERAGE(C16:C22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="18" t="e">
+        <v>50</v>
+      </c>
+      <c r="B15" s="27">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27">
+        <v>6.14</v>
+      </c>
+      <c r="D15" s="11" t="e">
         <f>AVERAGE(D16:D22)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E15" s="30">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="26">
+        <v>5</v>
+      </c>
+      <c r="C16" s="26">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="26">
+        <v>7</v>
+      </c>
+      <c r="C17" s="26">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="26">
+        <v>7</v>
+      </c>
+      <c r="C18" s="26">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="26">
+        <v>8</v>
+      </c>
+      <c r="C19" s="26">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="26">
+        <v>7</v>
+      </c>
+      <c r="C20" s="26">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="26">
+        <v>8</v>
+      </c>
+      <c r="C21" s="26">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="26">
+        <v>7</v>
+      </c>
+      <c r="C22" s="26">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="18" t="e">
-        <f>AVERAGE(B24:B28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" s="18" t="e">
-        <f>AVERAGE(C24:C28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="18" t="e">
+        <v>80</v>
+      </c>
+      <c r="B23" s="27">
+        <v>6.8</v>
+      </c>
+      <c r="C23" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="D23" s="11" t="e">
         <f>AVERAGE(D24:D28)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E23" s="30">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="26">
+        <v>8</v>
+      </c>
+      <c r="C24" s="26">
+        <v>6</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="26">
+        <v>8</v>
+      </c>
+      <c r="C25" s="26">
+        <v>6</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="26">
+        <v>6</v>
+      </c>
+      <c r="C26" s="26">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="26">
+        <v>6</v>
+      </c>
+      <c r="C27" s="26">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="26">
+        <v>6</v>
+      </c>
+      <c r="C28" s="26">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="15" t="e">
-        <f>AVERAGE(B30:B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29" s="15" t="e">
-        <f>AVERAGE(C30:C31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="15" t="e">
+        <v>81</v>
+      </c>
+      <c r="B29" s="27">
+        <v>6</v>
+      </c>
+      <c r="C29" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="D29" s="8" t="e">
         <f>AVERAGE(D30:D31)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E29" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="26">
+        <v>7</v>
+      </c>
+      <c r="C30" s="26">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="26">
+        <v>5</v>
+      </c>
+      <c r="C31" s="26">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="15" t="e">
-        <f>AVERAGE(B33:B34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="15" t="e">
-        <f>AVERAGE(C33:C34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="15" t="e">
+        <v>62</v>
+      </c>
+      <c r="B32" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="27">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8" t="e">
         <f>AVERAGE(D33:D34)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E32" s="30">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="26">
+        <v>8</v>
+      </c>
+      <c r="C33" s="26">
+        <v>8</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="26">
+        <v>7</v>
+      </c>
+      <c r="C34" s="26">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="15" t="e">
-        <f>AVERAGE(B36:B37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="15" t="e">
-        <f>AVERAGE(C36:C37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="15" t="e">
+        <v>65</v>
+      </c>
+      <c r="B35" s="27">
+        <v>6</v>
+      </c>
+      <c r="C35" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="D35" s="8" t="e">
         <f>AVERAGE(D36:D37)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E35" s="30">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="26">
+        <v>6</v>
+      </c>
+      <c r="C36" s="26">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="26">
+        <v>6</v>
+      </c>
+      <c r="C37" s="26">
+        <v>7</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="15" t="e">
-        <f>AVERAGE(B39:B42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" s="15" t="e">
-        <f>AVERAGE(C39:C42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="15" t="e">
+        <v>71</v>
+      </c>
+      <c r="B38" s="27">
+        <v>7.25</v>
+      </c>
+      <c r="C38" s="27">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8" t="e">
         <f>AVERAGE(D39:D42)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E38" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="26">
+        <v>7</v>
+      </c>
+      <c r="C39" s="26">
+        <v>8</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="26">
+        <v>8</v>
+      </c>
+      <c r="C40" s="26">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="26">
+        <v>7</v>
+      </c>
+      <c r="C41" s="26">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="26">
+        <v>7</v>
+      </c>
+      <c r="C42" s="26">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="18" t="e">
-        <f>AVERAGE(B44:B46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C43" s="18" t="e">
-        <f>AVERAGE(C44:C46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D43" s="18" t="e">
+        <v>76</v>
+      </c>
+      <c r="B43" s="25">
+        <v>5.67</v>
+      </c>
+      <c r="C43" s="27">
+        <v>7.67</v>
+      </c>
+      <c r="D43" s="11" t="e">
         <f>AVERAGE(D44:D46)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
+      <c r="E43" s="30">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="26">
+        <v>6</v>
+      </c>
+      <c r="C44" s="26">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="26">
+        <v>7</v>
+      </c>
+      <c r="C45" s="26">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="26">
+        <v>4</v>
+      </c>
+      <c r="C46" s="26">
+        <v>9</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="29">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GestStratEntr-J3b_Analyse interne_compétences-personnalité.xlsx
+++ b/GestStratEntr-J3b_Analyse interne_compétences-personnalité.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Compétences" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="160">
   <si>
     <t xml:space="preserve">Analyse interne : compétences</t>
   </si>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">Membre 2 équipe</t>
   </si>
   <si>
-    <t xml:space="preserve">Membre 3 équipe</t>
+    <t xml:space="preserve">Joel</t>
   </si>
   <si>
     <t xml:space="preserve">Membre 4 équipe</t>
@@ -992,7 +992,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1053,6 +1053,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,7 +1106,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1201,7 +1205,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1296,6 +1300,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -1339,13 +1384,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="7978994"/>
-        <c:axId val="19623223"/>
+        <c:axId val="2363102"/>
+        <c:axId val="50353224"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="7978994"/>
+        <c:axId val="2363102"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1382,14 +1427,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19623223"/>
+        <c:crossAx val="50353224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19623223"/>
+        <c:axId val="50353224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1476,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7978994"/>
+        <c:crossAx val="2363102"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1481,7 +1526,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1576,6 +1621,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -1619,13 +1705,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62626929"/>
-        <c:axId val="25839056"/>
+        <c:axId val="45825672"/>
+        <c:axId val="96172689"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="62626929"/>
+        <c:axId val="45825672"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1662,14 +1748,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25839056"/>
+        <c:crossAx val="96172689"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25839056"/>
+        <c:axId val="96172689"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1797,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62626929"/>
+        <c:crossAx val="45825672"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1761,7 +1847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1856,6 +1942,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -1899,13 +2026,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70616457"/>
-        <c:axId val="79357304"/>
+        <c:axId val="88116280"/>
+        <c:axId val="59034626"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="70616457"/>
+        <c:axId val="88116280"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1942,14 +2069,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79357304"/>
+        <c:crossAx val="59034626"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79357304"/>
+        <c:axId val="59034626"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2118,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70616457"/>
+        <c:crossAx val="88116280"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2041,7 +2168,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2136,6 +2263,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2179,13 +2347,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="61095945"/>
-        <c:axId val="28942363"/>
+        <c:axId val="43454196"/>
+        <c:axId val="1113760"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="61095945"/>
+        <c:axId val="43454196"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2222,14 +2390,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28942363"/>
+        <c:crossAx val="1113760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28942363"/>
+        <c:axId val="1113760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2439,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61095945"/>
+        <c:crossAx val="43454196"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2321,7 +2489,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2416,6 +2584,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2459,13 +2668,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11456362"/>
-        <c:axId val="14805696"/>
+        <c:axId val="49109798"/>
+        <c:axId val="16886467"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="11456362"/>
+        <c:axId val="49109798"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2502,14 +2711,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14805696"/>
+        <c:crossAx val="16886467"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14805696"/>
+        <c:axId val="16886467"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2760,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11456362"/>
+        <c:crossAx val="49109798"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2601,7 +2810,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2696,6 +2905,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2739,13 +2989,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90199571"/>
-        <c:axId val="8069355"/>
+        <c:axId val="2050774"/>
+        <c:axId val="67967606"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="90199571"/>
+        <c:axId val="2050774"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2782,14 +3032,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8069355"/>
+        <c:crossAx val="67967606"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8069355"/>
+        <c:axId val="67967606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +3081,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90199571"/>
+        <c:crossAx val="2050774"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2881,7 +3131,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2976,6 +3226,47 @@
             <c:showPercent val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -3019,13 +3310,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="512034"/>
-        <c:axId val="79953769"/>
+        <c:axId val="16567827"/>
+        <c:axId val="7244095"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="512034"/>
+        <c:axId val="16567827"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3062,14 +3353,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79953769"/>
+        <c:crossAx val="7244095"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79953769"/>
+        <c:axId val="7244095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,7 +3402,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512034"/>
+        <c:crossAx val="16567827"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3161,7 +3452,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3461,7 +3752,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Membre 3 équipe</c:v>
+                  <c:v>Joel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3557,31 +3848,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3593,13 +3884,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74635390"/>
-        <c:axId val="19787410"/>
+        <c:axId val="42101900"/>
+        <c:axId val="69209266"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="74635390"/>
+        <c:axId val="42101900"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3626,14 +3917,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19787410"/>
+        <c:crossAx val="69209266"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19787410"/>
+        <c:axId val="69209266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3963,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74635390"/>
+        <c:crossAx val="42101900"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3723,7 +4014,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5016,13 +5307,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="25938490"/>
-        <c:axId val="39024098"/>
+        <c:axId val="71478997"/>
+        <c:axId val="39402775"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="25938490"/>
+        <c:axId val="71478997"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5059,14 +5350,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39024098"/>
+        <c:crossAx val="39402775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39024098"/>
+        <c:axId val="39402775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,7 +5398,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25938490"/>
+        <c:crossAx val="71478997"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -5162,13 +5453,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4499640</xdr:colOff>
+      <xdr:colOff>4499280</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5176,8 +5467,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="17760240"/>
-        <a:ext cx="4499640" cy="2386800"/>
+        <a:off x="0" y="16910640"/>
+        <a:ext cx="4499280" cy="2386440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5190,7 +5481,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
@@ -5198,7 +5489,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>217800</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5206,8 +5497,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5251320" y="17768160"/>
-        <a:ext cx="4751640" cy="2383920"/>
+        <a:off x="5250960" y="16919280"/>
+        <a:ext cx="4751280" cy="2383560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5226,9 +5517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4499640</xdr:colOff>
+      <xdr:colOff>4499280</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5236,8 +5527,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="20359080"/>
-        <a:ext cx="4499640" cy="2383920"/>
+        <a:off x="0" y="19520280"/>
+        <a:ext cx="4499280" cy="2383560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5256,9 +5547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>181440</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5266,8 +5557,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4974120" y="20361240"/>
-        <a:ext cx="4992480" cy="2383920"/>
+        <a:off x="4974120" y="19522440"/>
+        <a:ext cx="4991400" cy="2383560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5286,9 +5577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4499640</xdr:colOff>
+      <xdr:colOff>4499280</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5296,8 +5587,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="22952160"/>
-        <a:ext cx="4499640" cy="2383920"/>
+        <a:off x="0" y="22123440"/>
+        <a:ext cx="4499280" cy="2383560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5310,7 +5601,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -5318,7 +5609,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>183960</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5326,8 +5617,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5253480" y="22945680"/>
-        <a:ext cx="4715640" cy="2383920"/>
+        <a:off x="5253120" y="22116960"/>
+        <a:ext cx="4715280" cy="2383560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5342,13 +5633,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2571840</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>660240</xdr:colOff>
+      <xdr:colOff>659880</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5356,8 +5647,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2571840" y="26032680"/>
-        <a:ext cx="4851000" cy="2383920"/>
+        <a:off x="2571840" y="25216200"/>
+        <a:ext cx="4849920" cy="2383560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5381,9 +5672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>309600</xdr:colOff>
+      <xdr:colOff>309240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5392,7 +5683,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9310680" cy="6084000"/>
+        <a:ext cx="9319680" cy="6083640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5416,9 +5707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>421200</xdr:colOff>
+      <xdr:colOff>420840</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5426,8 +5717,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5532840" y="1068840"/>
-        <a:ext cx="7082640" cy="11372760"/>
+        <a:off x="5531760" y="1068840"/>
+        <a:ext cx="7076520" cy="11372400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5447,11 +5738,11 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="74.42"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
@@ -5459,7 +5750,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5510,7 +5801,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
@@ -5549,7 +5840,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F11" s="11" t="n">
         <v>11</v>
@@ -5564,7 +5855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -5572,146 +5863,160 @@
       <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="C14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="C16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="C17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="C18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="19" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="11" t="n">
         <v>17</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="n">
         <v>24</v>
@@ -5726,154 +6031,168 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="C20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="C21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
+      <c r="C23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="C26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="19" t="n">
         <v>13</v>
       </c>
       <c r="D27" s="11" t="n">
         <v>9</v>
       </c>
       <c r="E27" s="11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F27" s="11" t="n">
         <v>12</v>
@@ -5888,154 +6207,168 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
+      <c r="C28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
+      <c r="C29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
+      <c r="D30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
+      <c r="C31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="C32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
+      <c r="C33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
+      <c r="C34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="18" t="n">
+      <c r="C35" s="19" t="n">
         <v>15</v>
       </c>
       <c r="D35" s="11" t="n">
         <v>8</v>
       </c>
       <c r="E35" s="11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F35" s="11" t="n">
         <v>11</v>
@@ -6050,154 +6383,168 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13" t="s">
+      <c r="C36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
+      <c r="C37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13" t="s">
+      <c r="D38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
+      <c r="C39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
+      <c r="C40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
+      <c r="C41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
+      <c r="D42" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="18" t="n">
+      <c r="C43" s="19" t="n">
         <v>14</v>
       </c>
       <c r="D43" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E43" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F43" s="11" t="n">
         <v>8</v>
@@ -6212,135 +6559,147 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
+      <c r="C44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
+      <c r="C45" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
+      <c r="D46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
+      <c r="E47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="13"/>
-      <c r="C48" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
+      <c r="C48" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="13"/>
-      <c r="C49" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
+      <c r="C49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="17"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="18" t="n">
+      <c r="C50" s="19" t="n">
         <v>15</v>
       </c>
       <c r="D50" s="11" t="n">
         <v>10</v>
       </c>
       <c r="E50" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F50" s="11" t="n">
         <v>13</v>
@@ -6355,154 +6714,168 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="13"/>
-      <c r="C51" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
+      <c r="C51" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
+      <c r="C52" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="13"/>
-      <c r="C53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
+      <c r="C53" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
+      <c r="D54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="13"/>
-      <c r="C55" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
+      <c r="C55" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="13"/>
-      <c r="C56" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
+      <c r="C56" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="13"/>
-      <c r="C57" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
+      <c r="C57" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
-      <c r="I57" s="17"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="18" t="n">
+      <c r="C58" s="19" t="n">
         <v>12</v>
       </c>
       <c r="D58" s="11" t="n">
         <v>12</v>
       </c>
       <c r="E58" s="11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F58" s="11" t="n">
         <v>9</v>
@@ -6517,154 +6890,168 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B59" s="13"/>
-      <c r="C59" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13" t="s">
+      <c r="C59" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="13"/>
-      <c r="C60" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
+      <c r="C60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="15"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B61" s="13"/>
-      <c r="C61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
+      <c r="C61" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="13"/>
-      <c r="C62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
+      <c r="C62" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="13"/>
-      <c r="C63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
+      <c r="C63" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B64" s="13"/>
-      <c r="C64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
+      <c r="C64" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B65" s="13"/>
-      <c r="C65" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
+      <c r="C65" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
-      <c r="I65" s="17"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="18" t="n">
+      <c r="C66" s="19" t="n">
         <v>17</v>
       </c>
       <c r="D66" s="11" t="n">
         <v>8</v>
       </c>
       <c r="E66" s="11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F66" s="11" t="n">
         <v>9</v>
@@ -6679,154 +7066,168 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13" t="s">
+      <c r="D67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="13"/>
-      <c r="C68" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13" t="s">
+      <c r="C68" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="13"/>
-      <c r="C69" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13" t="s">
+      <c r="C69" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B70" s="13"/>
-      <c r="C70" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13" t="s">
+      <c r="C70" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B71" s="13"/>
-      <c r="C71" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13" t="s">
+      <c r="C71" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
-      <c r="I71" s="15"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13" t="s">
+      <c r="D72" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
-      <c r="I72" s="15"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13" t="s">
+      <c r="C73" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="13"/>
-      <c r="I73" s="17"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="18" t="n">
+      <c r="C74" s="19" t="n">
         <v>17</v>
       </c>
       <c r="D74" s="11" t="n">
         <v>13</v>
       </c>
       <c r="E74" s="11" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F74" s="11" t="n">
         <v>10</v>
@@ -6841,147 +7242,161 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13" t="s">
+      <c r="C75" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="13"/>
-      <c r="I75" s="15"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I75" s="16"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13" t="s">
+      <c r="C76" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
-      <c r="I76" s="15"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13" t="s">
+      <c r="D77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="15"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13" t="s">
+      <c r="C78" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="15"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13" t="s">
+      <c r="C79" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
-      <c r="I79" s="15"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13" t="s">
+      <c r="D80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
-      <c r="I80" s="15"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B81" s="13"/>
-      <c r="C81" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13" t="s">
+      <c r="C81" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
-      <c r="I81" s="17"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="18" t="n">
+      <c r="C82" s="19" t="n">
         <v>19</v>
       </c>
       <c r="D82" s="11" t="n">
@@ -7003,147 +7418,161 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13" t="s">
+      <c r="D83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
-      <c r="I83" s="15"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="13"/>
-      <c r="C84" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13" t="s">
+      <c r="C84" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
-      <c r="I84" s="15"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13" t="s">
+      <c r="C85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="15"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13" t="s">
+      <c r="C86" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="15"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B87" s="13"/>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13" t="s">
+      <c r="D87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="15"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="13" t="s">
+      <c r="C88" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13" t="s">
+      <c r="E88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
-      <c r="I88" s="15"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13" t="s">
+      <c r="E89" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="17"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="18" t="n">
+      <c r="C90" s="19" t="n">
         <v>16</v>
       </c>
       <c r="D90" s="11" t="n">
@@ -7165,136 +7594,150 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="13" t="s">
+      <c r="C91" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13" t="s">
+      <c r="E91" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
-      <c r="I91" s="15"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13" t="s">
+      <c r="C92" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
-      <c r="I92" s="15"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B93" s="13"/>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13" t="s">
+      <c r="E93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
-      <c r="I93" s="15"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="C94" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="15"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
-      <c r="I94" s="15"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
         <v>109</v>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13" t="s">
+      <c r="C95" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
-      <c r="I95" s="15"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B96" s="13"/>
-      <c r="C96" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13" t="s">
+      <c r="C96" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
-      <c r="I96" s="15"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
         <v>111</v>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13" t="s">
+      <c r="C97" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
-      <c r="I97" s="15"/>
+      <c r="I97" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7336,7 +7779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7357,29 +7800,29 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="20" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="21" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -7400,721 +7843,721 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="25" t="n">
         <v>6.88</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="26" t="n">
         <f aca="false">AVERAGE(D7:D14)</f>
         <v>6.625</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="27" t="n">
         <v>7.13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="28" t="n">
+      <c r="B7" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="29" t="n">
+      <c r="D7" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="28" t="n">
+      <c r="B8" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="29" t="n">
+      <c r="D8" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="30" t="n">
+      <c r="E8" s="31" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="28" t="n">
+      <c r="B9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="29" t="n">
+      <c r="D9" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E9" s="30" t="n">
+      <c r="E9" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="28" t="n">
+      <c r="B10" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="D10" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="30" t="n">
+      <c r="E10" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="28" t="n">
+      <c r="B11" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="E11" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="28" t="n">
+      <c r="B12" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D12" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E12" s="30" t="n">
+      <c r="E12" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="28" t="n">
+      <c r="B13" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="D13" s="29" t="n">
+      <c r="D13" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="30" t="n">
+      <c r="E13" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="28" t="n">
+      <c r="B14" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="30" t="n">
+      <c r="E14" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="31" t="n">
+      <c r="B15" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="C15" s="31" t="n">
+      <c r="C15" s="32" t="n">
         <v>6.14</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="26" t="n">
         <f aca="false">AVERAGE(D16:D22)</f>
         <v>7.28571428571429</v>
       </c>
-      <c r="E15" s="32" t="n">
+      <c r="E15" s="33" t="n">
         <v>8.14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="28" t="n">
+      <c r="B16" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="D16" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E16" s="30" t="n">
+      <c r="E16" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="28" t="n">
+      <c r="B17" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D17" s="29" t="n">
+      <c r="D17" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E17" s="30" t="n">
+      <c r="E17" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="28" t="n">
+      <c r="B18" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D18" s="29" t="n">
+      <c r="D18" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E18" s="30" t="n">
+      <c r="E18" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="28" t="n">
+      <c r="B19" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D19" s="29" t="n">
+      <c r="D19" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E19" s="30" t="n">
+      <c r="E19" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="28" t="n">
+      <c r="B20" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="29" t="n">
+      <c r="D20" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E20" s="30" t="n">
+      <c r="E20" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="28" t="n">
+      <c r="B21" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="C21" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="29" t="n">
+      <c r="D21" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="30" t="n">
+      <c r="E21" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="28" t="n">
+      <c r="B22" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="C22" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="29" t="n">
+      <c r="D22" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E22" s="30" t="n">
+      <c r="E22" s="31" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="31" t="n">
+      <c r="B23" s="32" t="n">
         <v>6.8</v>
       </c>
-      <c r="C23" s="31" t="n">
+      <c r="C23" s="32" t="n">
         <v>6.2</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="26" t="n">
         <f aca="false">AVERAGE(D24:D28)</f>
         <v>7</v>
       </c>
-      <c r="E23" s="32" t="n">
+      <c r="E23" s="33" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="28" t="n">
+      <c r="B24" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C24" s="28" t="n">
+      <c r="C24" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="29" t="n">
+      <c r="D24" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E24" s="30" t="n">
+      <c r="E24" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="28" t="n">
+      <c r="B25" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C25" s="28" t="n">
+      <c r="C25" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="29" t="n">
+      <c r="D25" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E25" s="30" t="n">
+      <c r="E25" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="28" t="n">
+      <c r="B26" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="28" t="n">
+      <c r="C26" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D26" s="29" t="n">
+      <c r="D26" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E26" s="30" t="n">
+      <c r="E26" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="28" t="n">
+      <c r="B27" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="C27" s="28" t="n">
+      <c r="C27" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D27" s="29" t="n">
+      <c r="D27" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="E27" s="30" t="n">
+      <c r="E27" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="28" t="n">
+      <c r="B28" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="28" t="n">
+      <c r="C28" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="29" t="n">
+      <c r="D28" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E28" s="30" t="n">
+      <c r="E28" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="31" t="n">
+      <c r="B29" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="31" t="n">
+      <c r="C29" s="32" t="n">
         <v>7.5</v>
       </c>
-      <c r="D29" s="33" t="n">
+      <c r="D29" s="34" t="n">
         <f aca="false">AVERAGE(D30:D31)</f>
         <v>7</v>
       </c>
-      <c r="E29" s="32" t="n">
+      <c r="E29" s="33" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="28" t="n">
+      <c r="B30" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C30" s="28" t="n">
+      <c r="C30" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="29" t="n">
+      <c r="D30" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E30" s="30" t="n">
+      <c r="E30" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="28" t="n">
+      <c r="B31" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="C31" s="28" t="n">
+      <c r="C31" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D31" s="29" t="n">
+      <c r="D31" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E31" s="30" t="n">
+      <c r="E31" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="31" t="n">
+      <c r="B32" s="32" t="n">
         <v>7.5</v>
       </c>
-      <c r="C32" s="31" t="n">
+      <c r="C32" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="D32" s="33" t="n">
+      <c r="D32" s="34" t="n">
         <f aca="false">AVERAGE(D33:D34)</f>
         <v>8.5</v>
       </c>
-      <c r="E32" s="32" t="n">
+      <c r="E32" s="33" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="28" t="n">
+      <c r="B33" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C33" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="29" t="n">
+      <c r="D33" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E33" s="30" t="n">
+      <c r="E33" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="28" t="n">
+      <c r="B34" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="28" t="n">
+      <c r="C34" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D34" s="29" t="n">
+      <c r="D34" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="E34" s="30" t="n">
+      <c r="E34" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="31" t="n">
+      <c r="B35" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="31" t="n">
+      <c r="C35" s="32" t="n">
         <v>6.5</v>
       </c>
-      <c r="D35" s="33" t="n">
+      <c r="D35" s="34" t="n">
         <f aca="false">AVERAGE(D36:D37)</f>
         <v>7.5</v>
       </c>
-      <c r="E35" s="32" t="n">
+      <c r="E35" s="33" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="28" t="n">
+      <c r="B36" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="28" t="n">
+      <c r="C36" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="D36" s="29" t="n">
+      <c r="D36" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E36" s="30" t="n">
+      <c r="E36" s="31" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="28" t="n">
+      <c r="B37" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="C37" s="28" t="n">
+      <c r="C37" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D37" s="29" t="n">
+      <c r="D37" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E37" s="30" t="n">
+      <c r="E37" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="31" t="n">
+      <c r="B38" s="32" t="n">
         <v>7.25</v>
       </c>
-      <c r="C38" s="31" t="n">
+      <c r="C38" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="D38" s="33" t="n">
+      <c r="D38" s="34" t="n">
         <f aca="false">AVERAGE(D39:D42)</f>
         <v>7</v>
       </c>
-      <c r="E38" s="32" t="n">
+      <c r="E38" s="33" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="28" t="n">
+      <c r="B39" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C39" s="28" t="n">
+      <c r="C39" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D39" s="29" t="n">
+      <c r="D39" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E39" s="30" t="n">
+      <c r="E39" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="28" t="n">
+      <c r="B40" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="C40" s="28" t="n">
+      <c r="C40" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D40" s="29" t="n">
+      <c r="D40" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="30" t="n">
+      <c r="E40" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="28" t="n">
+      <c r="B41" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C41" s="28" t="n">
+      <c r="C41" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="D41" s="29" t="n">
+      <c r="D41" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E41" s="30" t="n">
+      <c r="E41" s="31" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="28" t="n">
+      <c r="B42" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C42" s="28" t="n">
+      <c r="C42" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D42" s="29" t="n">
+      <c r="D42" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E42" s="30" t="n">
+      <c r="E42" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="24" t="n">
+      <c r="B43" s="25" t="n">
         <v>5.67</v>
       </c>
-      <c r="C43" s="31" t="n">
+      <c r="C43" s="32" t="n">
         <v>7.67</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="26" t="n">
         <f aca="false">AVERAGE(D44:D46)</f>
         <v>8</v>
       </c>
-      <c r="E43" s="32" t="n">
+      <c r="E43" s="33" t="n">
         <v>7.67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="28" t="n">
+      <c r="B44" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="C44" s="28" t="n">
+      <c r="C44" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D44" s="29" t="n">
+      <c r="D44" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="30" t="n">
+      <c r="E44" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="28" t="n">
+      <c r="B45" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C45" s="28" t="n">
+      <c r="C45" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="D45" s="29" t="n">
+      <c r="D45" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="30" t="n">
+      <c r="E45" s="31" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="28" t="n">
+      <c r="B46" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="C46" s="28" t="n">
+      <c r="C46" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="D46" s="29" t="n">
+      <c r="D46" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E46" s="30" t="n">
+      <c r="E46" s="31" t="n">
         <v>7</v>
       </c>
     </row>

--- a/GestStratEntr-J3b_Analyse interne_compétences-personnalité.xlsx
+++ b/GestStratEntr-J3b_Analyse interne_compétences-personnalité.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\3eme\S5\GET\GET_Projet_Bonbons\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4CFD3-CDE9-4209-A020-828C44761D4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compétences" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Graphique Compétences" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Indice de personnalité complété" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Compétences" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique Compétences" sheetId="2" r:id="rId2"/>
+    <sheet name="Indice de personnalité complété" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,12 +29,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="160">
   <si>
-    <t xml:space="preserve">Analyse interne : compétences</t>
+    <t>Analyse interne : compétences</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -66,14 +71,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Notions:</t>
+      <t>Notions:</t>
     </r>
   </si>
   <si>
@@ -89,14 +94,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Pratique:</t>
+      <t>Pratique:</t>
     </r>
   </si>
   <si>
@@ -112,341 +117,341 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Maitrise:</t>
+      <t>Maitrise:</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Membre 1 équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 2 équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 4 équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 5 équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 6 équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Compétences en conception et modélisation d’opportunités entrepreneuriales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modélisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connaissance de l’environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche d’opportunités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mission et vision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation commerciale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation de mise en œuvre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation financière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Compétences en gestion de l’information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définition des besoins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identification de sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veille informationnelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseautage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatique et internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse et synthèse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de la connaissance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Compétences en marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse d’opportunités</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etude de marché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélection de marché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conception de prestations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse de concurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positionnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratégie marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Compétences en promotion et ventes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratégie commerciale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formulation de l’offre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choix des canaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion des ventes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prospection et acquisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suivi commercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fidélisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Compétences en relations et communication institutionnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sphère d’influence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication institutionnelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Communication dans les médias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réseaux sociaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouvernance externe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliances et partenariats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Compétences en stratégie et gestion de projets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision stratégique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion des risques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stratégie de développement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixation d’objectifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mesure de résultats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de projets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Compétences en gestion financière et des coûts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point mort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planification financière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créanciers et débiteurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trésorerie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prise de décision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relations financières</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Compétences en organisation, production et logistique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ressources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Négociation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Compétences en gestion des RH et gouvernance interne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Politique RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cahiers des charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de conflits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. Qualités personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q. Personnelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Décision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poursuite des objectifs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptabilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-confiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. Qualités d'entrepreneuriat social/sociétal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entr.Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérêt collectif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profitabilité orientée impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision humaniste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensibilité en DD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion participative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision systémique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSE</t>
+    <t>Membre 1 équipe</t>
+  </si>
+  <si>
+    <t>Membre 2 équipe</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Membre 4 équipe</t>
+  </si>
+  <si>
+    <t>Membre 5 équipe</t>
+  </si>
+  <si>
+    <t>Membre 6 équipe</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>1. Compétences en conception et modélisation d’opportunités entrepreneuriales</t>
+  </si>
+  <si>
+    <t>Modélisation</t>
+  </si>
+  <si>
+    <t>Connaissance de l’environnement</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Recherche d’opportunités</t>
+  </si>
+  <si>
+    <t>Mission et vision</t>
+  </si>
+  <si>
+    <t>Business model</t>
+  </si>
+  <si>
+    <t>Evaluation commerciale</t>
+  </si>
+  <si>
+    <t>Evaluation de mise en œuvre</t>
+  </si>
+  <si>
+    <t>Evaluation financière</t>
+  </si>
+  <si>
+    <t>2. Compétences en gestion de l’information</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Définition des besoins</t>
+  </si>
+  <si>
+    <t>Identification de sources</t>
+  </si>
+  <si>
+    <t>Veille informationnelle</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Réseautage</t>
+  </si>
+  <si>
+    <t>Informatique et internet</t>
+  </si>
+  <si>
+    <t>Analyse et synthèse</t>
+  </si>
+  <si>
+    <t>Gestion de la connaissance</t>
+  </si>
+  <si>
+    <t>3. Compétences en marketing</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Analyse d’opportunités</t>
+  </si>
+  <si>
+    <t>Etude de marché</t>
+  </si>
+  <si>
+    <t>Sélection de marché</t>
+  </si>
+  <si>
+    <t>Conception de prestations</t>
+  </si>
+  <si>
+    <t>Analyse de concurrence</t>
+  </si>
+  <si>
+    <t>Positionnement</t>
+  </si>
+  <si>
+    <t>Stratégie marketing</t>
+  </si>
+  <si>
+    <t>4. Compétences en promotion et ventes</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Stratégie commerciale</t>
+  </si>
+  <si>
+    <t>Formulation de l’offre</t>
+  </si>
+  <si>
+    <t>Choix des canaux</t>
+  </si>
+  <si>
+    <t>Promotion des ventes</t>
+  </si>
+  <si>
+    <t>Prospection et acquisition</t>
+  </si>
+  <si>
+    <t>Suivi commercial</t>
+  </si>
+  <si>
+    <t>Fidélisation</t>
+  </si>
+  <si>
+    <t>5. Compétences en relations et communication institutionnelles</t>
+  </si>
+  <si>
+    <t>Relations</t>
+  </si>
+  <si>
+    <t>Sphère d’influence</t>
+  </si>
+  <si>
+    <t>Communication institutionnelle</t>
+  </si>
+  <si>
+    <t>Communication dans les médias</t>
+  </si>
+  <si>
+    <t>Réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Gouvernance externe</t>
+  </si>
+  <si>
+    <t>Alliances et partenariats</t>
+  </si>
+  <si>
+    <t>6. Compétences en stratégie et gestion de projets</t>
+  </si>
+  <si>
+    <t>Projets</t>
+  </si>
+  <si>
+    <t>Vision stratégique</t>
+  </si>
+  <si>
+    <t>Gestion des risques</t>
+  </si>
+  <si>
+    <t>Stratégie de développement</t>
+  </si>
+  <si>
+    <t>Fixation d’objectifs</t>
+  </si>
+  <si>
+    <t>Mesure de résultats</t>
+  </si>
+  <si>
+    <t>Gestion de projets</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>7. Compétences en gestion financière et des coûts</t>
+  </si>
+  <si>
+    <t>Finances</t>
+  </si>
+  <si>
+    <t>Point mort</t>
+  </si>
+  <si>
+    <t>Planification financière</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Créanciers et débiteurs</t>
+  </si>
+  <si>
+    <t>Trésorerie</t>
+  </si>
+  <si>
+    <t>Prise de décision</t>
+  </si>
+  <si>
+    <t>Relations financières</t>
+  </si>
+  <si>
+    <t>8. Compétences en organisation, production et logistique</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Qualité</t>
+  </si>
+  <si>
+    <t>Ressources</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Négociation</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>9. Compétences en gestion des RH et gouvernance interne</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Politique RH</t>
+  </si>
+  <si>
+    <t>Gestion RH</t>
+  </si>
+  <si>
+    <t>Cahiers des charges</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Participation</t>
+  </si>
+  <si>
+    <t>Gestion de conflits</t>
+  </si>
+  <si>
+    <t>10. Qualités personnelles</t>
+  </si>
+  <si>
+    <t>Q. Personnelles</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Décision</t>
+  </si>
+  <si>
+    <t>Poursuite des objectifs</t>
+  </si>
+  <si>
+    <t>Adaptabilité</t>
+  </si>
+  <si>
+    <t>Self-confiance</t>
+  </si>
+  <si>
+    <t>Respect</t>
+  </si>
+  <si>
+    <t>11. Qualités d'entrepreneuriat social/sociétal</t>
+  </si>
+  <si>
+    <t>Entr.Social</t>
+  </si>
+  <si>
+    <t>Intérêt collectif</t>
+  </si>
+  <si>
+    <t>Profitabilité orientée impact</t>
+  </si>
+  <si>
+    <t>Vision humaniste</t>
+  </si>
+  <si>
+    <t>Sensibilité en DD</t>
+  </si>
+  <si>
+    <t>Gestion participative</t>
+  </si>
+  <si>
+    <t>Vision systémique</t>
+  </si>
+  <si>
+    <t>RSE</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -480,14 +485,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">score le plus bas: 1</t>
+      <t>score le plus bas: 1</t>
     </r>
   </si>
   <si>
@@ -503,182 +508,162 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">le score le plus haut</t>
+      <t>le score le plus haut</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Membre 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Membre 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Energie et dynamisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambition</t>
+    <t>Membre 1</t>
+  </si>
+  <si>
+    <t>Membre 2</t>
+  </si>
+  <si>
+    <t>Membre 3</t>
+  </si>
+  <si>
+    <t>Membre 4</t>
+  </si>
+  <si>
+    <t>1. Energie et dynamisme</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Ambition</t>
   </si>
   <si>
     <t xml:space="preserve">Leadership </t>
   </si>
   <si>
-    <t xml:space="preserve">Confiance sur le plan social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initiative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexibilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multitâche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Travailler avec les autres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personne extravertie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travail d'équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souci des autres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esprit égalitaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le souci du service au client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le travail en équipe, de bonnes relations avec les collègues de travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoir une bonne influence sur les gens et sur les événements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Style au travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiabilité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persévérance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respect des règles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Souci du détail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. La résolution de problèmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raisonnement analytique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Faire face à la pression et au stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maîtrise de soi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tolérance au stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Echelles spéciales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potentiel de gestion et leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potentiel de vente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. L'extériorisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créativité et originalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autonomie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enthousiasme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le développement professionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. Les récompenses externes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La gratification financière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La sécurité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le prestige</t>
+    <t>Confiance sur le plan social</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Flexibilité</t>
+  </si>
+  <si>
+    <t>Multitâche</t>
+  </si>
+  <si>
+    <t>2. Travailler avec les autres</t>
+  </si>
+  <si>
+    <t>Personne extravertie</t>
+  </si>
+  <si>
+    <t>Travail d'équipe</t>
+  </si>
+  <si>
+    <t>Souci des autres</t>
+  </si>
+  <si>
+    <t>Esprit égalitaire</t>
+  </si>
+  <si>
+    <t>Le souci du service au client</t>
+  </si>
+  <si>
+    <t>Le travail en équipe, de bonnes relations avec les collègues de travail</t>
+  </si>
+  <si>
+    <t>Avoir une bonne influence sur les gens et sur les événements</t>
+  </si>
+  <si>
+    <t>3. Style au travail</t>
+  </si>
+  <si>
+    <t>Fiabilité</t>
+  </si>
+  <si>
+    <t>Persévérance</t>
+  </si>
+  <si>
+    <t>Respect des règles</t>
+  </si>
+  <si>
+    <t>Souci du détail</t>
+  </si>
+  <si>
+    <t>Planification</t>
+  </si>
+  <si>
+    <t>4. La résolution de problèmes</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Raisonnement analytique</t>
+  </si>
+  <si>
+    <t>5. Faire face à la pression et au stress</t>
+  </si>
+  <si>
+    <t>Maîtrise de soi</t>
+  </si>
+  <si>
+    <t>Tolérance au stress</t>
+  </si>
+  <si>
+    <t>6. Echelles spéciales</t>
+  </si>
+  <si>
+    <t>Potentiel de gestion et leadership</t>
+  </si>
+  <si>
+    <t>Potentiel de vente</t>
+  </si>
+  <si>
+    <t>7. L'extériorisation</t>
+  </si>
+  <si>
+    <t>Créativité et originalité</t>
+  </si>
+  <si>
+    <t>Autonomie</t>
+  </si>
+  <si>
+    <t>Enthousiasme</t>
+  </si>
+  <si>
+    <t>Le développement professionnel</t>
+  </si>
+  <si>
+    <t>8. Les récompenses externes</t>
+  </si>
+  <si>
+    <t>La gratification financière</t>
+  </si>
+  <si>
+    <t>La sécurité</t>
+  </si>
+  <si>
+    <t>Le prestige</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -688,7 +673,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -696,7 +681,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -704,7 +689,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -726,7 +711,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -734,42 +719,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFD9D9D9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -823,14 +777,14 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -845,8 +799,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FF548DD4"/>
       </right>
@@ -858,7 +814,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -873,7 +829,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF548DD4"/>
       </left>
@@ -888,7 +844,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -903,7 +859,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF548DD4"/>
       </left>
@@ -918,8 +874,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color rgb="FF558ED5"/>
       </right>
@@ -931,9 +889,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FF548DD4"/>
       </top>
@@ -942,8 +904,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FF548DD4"/>
       </right>
@@ -955,9 +919,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -967,181 +935,121 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1200,15 +1108,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1217,7 +1143,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1225,7 +1151,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1246,30 +1172,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membre 1 équipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1278,19 +1191,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1298,49 +1218,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -1383,7 +1268,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membre 1 équipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFF5-4943-9FAE-2272AA5C69B2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2363102"/>
         <c:axId val="50353224"/>
       </c:radarChart>
@@ -1418,13 +1388,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50353224"/>
@@ -1432,6 +1403,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50353224"/>
@@ -1467,21 +1439,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2363102"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1502,34 +1476,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1538,7 +1521,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1546,7 +1529,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1567,30 +1550,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membre 2 équipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1599,19 +1569,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1619,49 +1596,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -1704,7 +1646,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membre 2 équipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-716D-4F05-BB97-ADCBF9A1A7DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="45825672"/>
         <c:axId val="96172689"/>
       </c:radarChart>
@@ -1739,13 +1766,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96172689"/>
@@ -1753,6 +1781,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="96172689"/>
@@ -1788,21 +1817,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="45825672"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1823,34 +1854,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1859,7 +1899,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1867,7 +1907,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1888,30 +1928,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membre 3 équipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1920,19 +1947,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1940,49 +1974,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2025,7 +2024,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membre 3 équipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B79-47F5-A370-5E5FEE14F0A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="88116280"/>
         <c:axId val="59034626"/>
       </c:radarChart>
@@ -2060,13 +2144,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59034626"/>
@@ -2074,6 +2159,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="59034626"/>
@@ -2109,21 +2195,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88116280"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2144,34 +2232,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2180,7 +2277,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2188,7 +2285,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2209,30 +2306,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membre 4 équipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2241,19 +2325,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2261,49 +2352,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2346,7 +2402,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membre 4 équipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F2E0-4A8B-AE24-3117677DF8F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="43454196"/>
         <c:axId val="1113760"/>
       </c:radarChart>
@@ -2381,13 +2522,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1113760"/>
@@ -2395,6 +2537,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1113760"/>
@@ -2430,21 +2573,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="43454196"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2465,34 +2610,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2501,7 +2655,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2509,7 +2663,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2530,30 +2684,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membre 5 équipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2562,19 +2703,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2582,49 +2730,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2667,7 +2780,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membre 5 équipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79A1-496A-B8DF-204B470BF436}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="49109798"/>
         <c:axId val="16886467"/>
       </c:radarChart>
@@ -2702,13 +2900,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16886467"/>
@@ -2716,6 +2915,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="16886467"/>
@@ -2751,21 +2951,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="49109798"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -2786,34 +2988,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2822,7 +3033,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2830,7 +3041,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2851,30 +3062,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Membre 6 équipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2883,19 +3081,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2903,49 +3108,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -2988,7 +3158,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Membre 6 équipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C924-4E31-95F7-AAE60168E4D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="2050774"/>
         <c:axId val="67967606"/>
       </c:radarChart>
@@ -3023,13 +3278,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67967606"/>
@@ -3037,6 +3293,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="67967606"/>
@@ -3072,21 +3329,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050774"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3107,34 +3366,43 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3143,7 +3411,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3151,7 +3419,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3172,30 +3440,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Equipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3204,19 +3459,26 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3224,49 +3486,14 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>0</c:f>
@@ -3309,7 +3536,92 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>label 0</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Equipe</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>categories</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68E6-41A4-A30B-AC93945160AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="16567827"/>
         <c:axId val="7244095"/>
       </c:radarChart>
@@ -3344,13 +3656,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="7244095"/>
@@ -3358,6 +3671,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="7244095"/>
@@ -3393,21 +3707,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16567827"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -3428,36 +3744,47 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -3476,12 +3803,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
             <a:ln w="34920">
               <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3491,24 +3815,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3516,11 +3847,17 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Compétences!$A$11:$B$11,Compétences!$A$19:$B$19,Compétences!$A$27:$B$27,Compétences!$A$35:$B$35,Compétences!$A$43:$B$43,Compétences!$A$50:$B$50,Compétences!$A$58:$B$58,Compétences!$A$66:$B$66,Compétences!$A$74:$B$74,Compétences!$A$82:$B$82,Compétences!$A$90:$B$90</c:f>
+              <c:f>(Compétences!$A$11:$B$11,Compétences!$A$19:$B$19,Compétences!$A$27:$B$27,Compétences!$A$35:$B$35,Compétences!$A$43:$B$43,Compétences!$A$50:$B$50,Compétences!$A$58:$B$58,Compétences!$A$66:$B$66,Compétences!$A$74:$B$74,Compétences!$A$82:$B$82,Compétences!$A$90:$B$90)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3561,7 +3898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compétences!$C$11,Compétences!$C$19,Compétences!$C$27,Compétences!$C$35,Compétences!$C$43,Compétences!$C$50,Compétences!$C$58,Compétences!$C$66,Compétences!$C$74,Compétences!$C$82,Compétences!$C$90</c:f>
+              <c:f>(Compétences!$C$11,Compétences!$C$19,Compétences!$C$27,Compétences!$C$35,Compétences!$C$43,Compétences!$C$50,Compétences!$C$58,Compétences!$C$66,Compétences!$C$74,Compétences!$C$82,Compétences!$C$90)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3601,6 +3938,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FD2-473A-9BE7-0A369A0F5618}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3617,12 +3959,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
             <a:ln w="34920">
               <a:solidFill>
-                <a:srgbClr val="c0504d"/>
+                <a:srgbClr val="C0504D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3632,24 +3971,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c0504d"/>
+                <a:srgbClr val="C0504D"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3657,11 +4003,17 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Compétences!$A$11:$B$11,Compétences!$A$19:$B$19,Compétences!$A$27:$B$27,Compétences!$A$35:$B$35,Compétences!$A$43:$B$43,Compétences!$A$50:$B$50,Compétences!$A$58:$B$58,Compétences!$A$66:$B$66,Compétences!$A$74:$B$74,Compétences!$A$82:$B$82,Compétences!$A$90:$B$90</c:f>
+              <c:f>(Compétences!$A$11:$B$11,Compétences!$A$19:$B$19,Compétences!$A$27:$B$27,Compétences!$A$35:$B$35,Compétences!$A$43:$B$43,Compétences!$A$50:$B$50,Compétences!$A$58:$B$58,Compétences!$A$66:$B$66,Compétences!$A$74:$B$74,Compétences!$A$82:$B$82,Compétences!$A$90:$B$90)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3702,7 +4054,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compétences!$D$11,Compétences!$D$19,Compétences!$D$27,Compétences!$D$35,Compétences!$D$43,Compétences!$D$50,Compétences!$D$58,Compétences!$D$66,Compétences!$D$74,Compétences!$D$82,Compétences!$D$90</c:f>
+              <c:f>(Compétences!$D$11,Compétences!$D$19,Compétences!$D$27,Compétences!$D$35,Compétences!$D$43,Compétences!$D$50,Compétences!$D$58,Compétences!$D$66,Compétences!$D$74,Compétences!$D$82,Compétences!$D$90)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3742,6 +4094,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FD2-473A-9BE7-0A369A0F5618}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3758,12 +4115,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9bbb59"/>
-            </a:solidFill>
             <a:ln w="34920">
               <a:solidFill>
-                <a:srgbClr val="9bbb59"/>
+                <a:srgbClr val="9BBB59"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3773,24 +4127,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9bbb59"/>
+                <a:srgbClr val="9BBB59"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3798,11 +4159,17 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Compétences!$A$11:$B$11,Compétences!$A$19:$B$19,Compétences!$A$27:$B$27,Compétences!$A$35:$B$35,Compétences!$A$43:$B$43,Compétences!$A$50:$B$50,Compétences!$A$58:$B$58,Compétences!$A$66:$B$66,Compétences!$A$74:$B$74,Compétences!$A$82:$B$82,Compétences!$A$90:$B$90</c:f>
+              <c:f>(Compétences!$A$11:$B$11,Compétences!$A$19:$B$19,Compétences!$A$27:$B$27,Compétences!$A$35:$B$35,Compétences!$A$43:$B$43,Compétences!$A$50:$B$50,Compétences!$A$58:$B$58,Compétences!$A$66:$B$66,Compétences!$A$74:$B$74,Compétences!$A$82:$B$82,Compétences!$A$90:$B$90)</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3843,7 +4210,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compétences!$E$11,Compétences!$E$19,Compétences!$E$27,Compétences!$E$35,Compétences!$E$43,Compétences!$E$50,Compétences!$E$58,Compétences!$E$66,Compétences!$E$74,Compétences!$E$82,Compétences!$E$90</c:f>
+              <c:f>(Compétences!$E$11,Compétences!$E$19,Compétences!$E$27,Compétences!$E$35,Compétences!$E$43,Compétences!$E$50,Compétences!$E$58,Compétences!$E$66,Compétences!$E$74,Compétences!$E$82,Compétences!$E$90)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3883,7 +4250,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FD2-473A-9BE7-0A369A0F5618}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="42101900"/>
         <c:axId val="69209266"/>
       </c:radarChart>
@@ -3908,13 +4288,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69209266"/>
@@ -3922,6 +4303,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="69209266"/>
@@ -3934,7 +4316,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3954,17 +4336,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42101900"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3987,39 +4371,50 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -4038,12 +4433,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4f81bd"/>
-            </a:solidFill>
             <a:ln w="34920">
               <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4053,24 +4445,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4f81bd"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4078,7 +4477,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4343,6 +4748,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-058E-4B7B-B49E-9A9E07C4C20C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4359,12 +4769,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="c0504d"/>
-            </a:solidFill>
             <a:ln w="34920">
               <a:solidFill>
-                <a:srgbClr val="c0504d"/>
+                <a:srgbClr val="C0504D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4374,24 +4781,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="c0504d"/>
+                <a:srgbClr val="C0504D"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4399,7 +4813,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4664,6 +5084,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-058E-4B7B-B49E-9A9E07C4C20C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4680,12 +5105,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98b855"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4695,24 +5117,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="98b855"/>
+                <a:srgbClr val="98B855"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4720,7 +5149,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -4859,7 +5294,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>6.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4886,8 +5321,8 @@
                 <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.28571428571429</c:v>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6</c:v>
@@ -4910,7 +5345,7 @@
                 <c:pt idx="16">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" formatCode="0.00">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="18">
@@ -4970,7 +5405,7 @@
                 <c:pt idx="36">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="37" formatCode="0.00">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="38">
@@ -4985,6 +5420,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-058E-4B7B-B49E-9A9E07C4C20C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5001,12 +5441,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7d5fa0"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="7d5fa0"/>
+                <a:srgbClr val="7D5FA0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5016,24 +5453,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="7d5fa0"/>
+                <a:srgbClr val="7D5FA0"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5041,7 +5485,13 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -5306,7 +5756,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-058E-4B7B-B49E-9A9E07C4C20C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="71478997"/>
         <c:axId val="39402775"/>
       </c:radarChart>
@@ -5341,13 +5804,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39402775"/>
@@ -5355,6 +5819,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="39402775"/>
@@ -5367,7 +5832,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="f2f2f2">
+                <a:srgbClr val="F2F2F2">
                   <a:alpha val="10000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -5389,17 +5854,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="71478997"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5422,53 +5889,66 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>79959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4499280</xdr:colOff>
+      <xdr:colOff>4633751</xdr:colOff>
       <xdr:row>112</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>27759</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Graphique 3"/>
+        <xdr:cNvPr id="2" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="16910640"/>
-        <a:ext cx="4499280" cy="2386440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5491,14 +5971,20 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Graphique 4"/>
+        <xdr:cNvPr id="3" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5250960" y="16919280"/>
-        <a:ext cx="4751280" cy="2383560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5521,14 +6007,20 @@
       <xdr:row>128</xdr:row>
       <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 6"/>
+        <xdr:cNvPr id="4" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="19520280"/>
-        <a:ext cx="4499280" cy="2383560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5551,14 +6043,20 @@
       <xdr:row>128</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 7"/>
+        <xdr:cNvPr id="5" name="Graphique 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4974120" y="19522440"/>
-        <a:ext cx="4991400" cy="2383560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5581,14 +6079,20 @@
       <xdr:row>144</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 8"/>
+        <xdr:cNvPr id="6" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="22123440"/>
-        <a:ext cx="4499280" cy="2383560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5611,14 +6115,20 @@
       <xdr:row>144</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 9"/>
+        <xdr:cNvPr id="7" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5253120" y="22116960"/>
-        <a:ext cx="4715280" cy="2383560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5641,14 +6151,20 @@
       <xdr:row>163</xdr:row>
       <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 10"/>
+        <xdr:cNvPr id="8" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2571840" y="25216200"/>
-        <a:ext cx="4849920" cy="2383560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5662,7 +6178,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5676,14 +6192,20 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 1"/>
+        <xdr:cNvPr id="7" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9319680" cy="6083640"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5697,7 +6219,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5711,14 +6233,20 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 1"/>
+        <xdr:cNvPr id="8" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5531760" y="1068840"/>
-        <a:ext cx="7076520" cy="11372400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5731,2118 +6259,2401 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:AMK97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="74.42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="2" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.42"/>
+    <col min="1" max="1" width="74.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="10.7109375" style="4" customWidth="1"/>
+    <col min="9" max="1025" width="11.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="n">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="n">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="n">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="20.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="12">
         <v>9</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12">
         <v>12</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="12">
         <v>11</v>
       </c>
-      <c r="G11" s="11" t="n">
+      <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="H11" s="12">
         <v>0</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="19" t="n">
+      <c r="C19" s="20">
         <v>18</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="12">
         <v>12</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="12">
         <v>24</v>
       </c>
-      <c r="G19" s="11" t="n">
+      <c r="G19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="12">
         <v>0</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="12">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="15" t="s">
+      <c r="D22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="C27" s="20">
         <v>13</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="12">
         <v>9</v>
       </c>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="12">
         <v>11</v>
       </c>
-      <c r="F27" s="11" t="n">
+      <c r="F27" s="12">
         <v>12</v>
       </c>
-      <c r="G27" s="11" t="n">
+      <c r="G27" s="12">
         <v>0</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="12">
         <v>0</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+      <c r="D30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="14"/>
+      <c r="C34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="11" t="n">
+      <c r="C35" s="20">
+        <v>15</v>
+      </c>
+      <c r="D35" s="12">
         <v>8</v>
       </c>
-      <c r="E35" s="11" t="n">
+      <c r="E35" s="12">
         <v>11</v>
       </c>
-      <c r="F35" s="11" t="n">
+      <c r="F35" s="12">
         <v>11</v>
       </c>
-      <c r="G35" s="11" t="n">
+      <c r="G35" s="12">
         <v>0</v>
       </c>
-      <c r="H35" s="11" t="n">
+      <c r="H35" s="12">
         <v>0</v>
       </c>
-      <c r="I35" s="11" t="n">
+      <c r="I35" s="12">
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="D38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="F42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="19" t="n">
+      <c r="C43" s="20">
         <v>14</v>
       </c>
-      <c r="D43" s="11" t="n">
+      <c r="D43" s="12">
         <v>10</v>
       </c>
-      <c r="E43" s="11" t="n">
+      <c r="E43" s="12">
         <v>8</v>
       </c>
-      <c r="F43" s="11" t="n">
+      <c r="F43" s="12">
         <v>8</v>
       </c>
-      <c r="G43" s="11" t="n">
+      <c r="G43" s="12">
         <v>0</v>
       </c>
-      <c r="H43" s="11" t="n">
+      <c r="H43" s="12">
         <v>0</v>
       </c>
-      <c r="I43" s="11" t="n">
+      <c r="I43" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+      <c r="B44" s="14"/>
+      <c r="C44" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+      <c r="D46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="E47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="16"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="18"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="19"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D50" s="11" t="n">
+      <c r="C50" s="20">
+        <v>15</v>
+      </c>
+      <c r="D50" s="12">
         <v>10</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E50" s="12">
         <v>12</v>
       </c>
-      <c r="F50" s="11" t="n">
+      <c r="F50" s="12">
         <v>13</v>
       </c>
-      <c r="G50" s="11" t="n">
+      <c r="G50" s="12">
         <v>0</v>
       </c>
-      <c r="H50" s="11" t="n">
+      <c r="H50" s="12">
         <v>0</v>
       </c>
-      <c r="I50" s="11" t="n">
+      <c r="I50" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="D54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="B55" s="14"/>
+      <c r="C55" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="16"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="B56" s="14"/>
+      <c r="C56" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="17"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="18"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="B57" s="14"/>
+      <c r="C57" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="19" t="n">
+      <c r="C58" s="20">
         <v>12</v>
       </c>
-      <c r="D58" s="11" t="n">
+      <c r="D58" s="12">
         <v>12</v>
       </c>
-      <c r="E58" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="F58" s="11" t="n">
+      <c r="E58" s="12">
+        <v>15</v>
+      </c>
+      <c r="F58" s="12">
         <v>9</v>
       </c>
-      <c r="G58" s="11" t="n">
+      <c r="G58" s="12">
         <v>0</v>
       </c>
-      <c r="H58" s="11" t="n">
+      <c r="H58" s="12">
         <v>0</v>
       </c>
-      <c r="I58" s="11" t="n">
+      <c r="I58" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="17"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="17"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="15" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="F61" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="15" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="F63" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="B64" s="14"/>
+      <c r="C64" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="18"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
+      <c r="B65" s="14"/>
+      <c r="C65" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="19"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="19" t="n">
+      <c r="C66" s="20">
         <v>17</v>
       </c>
-      <c r="D66" s="11" t="n">
+      <c r="D66" s="12">
         <v>8</v>
       </c>
-      <c r="E66" s="11" t="n">
+      <c r="E66" s="12">
         <v>14</v>
       </c>
-      <c r="F66" s="11" t="n">
+      <c r="F66" s="12">
         <v>9</v>
       </c>
-      <c r="G66" s="11" t="n">
+      <c r="G66" s="12">
         <v>0</v>
       </c>
-      <c r="H66" s="11" t="n">
+      <c r="H66" s="12">
         <v>0</v>
       </c>
-      <c r="I66" s="11" t="n">
+      <c r="I66" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="17" t="s">
+      <c r="B67" s="14"/>
+      <c r="C67" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
+      <c r="F67" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="B68" s="14"/>
+      <c r="C68" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="16"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="17"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="16"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="17"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="16"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
+      <c r="D72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="17"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="18"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="19"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="19" t="n">
+      <c r="C74" s="20">
         <v>17</v>
       </c>
-      <c r="D74" s="11" t="n">
+      <c r="D74" s="12">
         <v>13</v>
       </c>
-      <c r="E74" s="11" t="n">
+      <c r="E74" s="12">
         <v>14</v>
       </c>
-      <c r="F74" s="11" t="n">
+      <c r="F74" s="12">
         <v>10</v>
       </c>
-      <c r="G74" s="11" t="n">
+      <c r="G74" s="12">
         <v>0</v>
       </c>
-      <c r="H74" s="11" t="n">
+      <c r="H74" s="12">
         <v>0</v>
       </c>
-      <c r="I74" s="11" t="n">
+      <c r="I74" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="16"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
+      <c r="B75" s="14"/>
+      <c r="C75" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="17" t="s">
+      <c r="B77" s="14"/>
+      <c r="C77" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
+      <c r="D77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="s">
+      <c r="B78" s="14"/>
+      <c r="C78" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="15" t="s">
+      <c r="B79" s="14"/>
+      <c r="C79" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="s">
+      <c r="F79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="17" t="s">
+      <c r="B80" s="14"/>
+      <c r="C80" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="16"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
+      <c r="D80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="15" t="s">
+      <c r="B81" s="14"/>
+      <c r="C81" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="18"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
+      <c r="F81" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="19"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C82" s="19" t="n">
+      <c r="C82" s="20">
         <v>19</v>
       </c>
-      <c r="D82" s="11" t="n">
+      <c r="D82" s="12">
         <v>18</v>
       </c>
-      <c r="E82" s="11" t="n">
+      <c r="E82" s="12">
         <v>0</v>
       </c>
-      <c r="F82" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="G82" s="11" t="n">
+      <c r="F82" s="12">
+        <v>15</v>
+      </c>
+      <c r="G82" s="12">
         <v>0</v>
       </c>
-      <c r="H82" s="11" t="n">
+      <c r="H82" s="12">
         <v>0</v>
       </c>
-      <c r="I82" s="11" t="n">
+      <c r="I82" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="17" t="s">
+      <c r="B83" s="14"/>
+      <c r="C83" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="15" t="s">
+      <c r="D83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="16"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="F83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="16"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+      <c r="B84" s="14"/>
+      <c r="C84" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
+      <c r="B85" s="14"/>
+      <c r="C85" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="17" t="s">
+      <c r="B87" s="14"/>
+      <c r="C87" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="15" t="s">
+      <c r="D87" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F87" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="16"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+      <c r="F87" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="15" t="s">
+      <c r="B88" s="14"/>
+      <c r="C88" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="16"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
+      <c r="E88" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="17" t="s">
+      <c r="B89" s="14"/>
+      <c r="C89" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="18"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="19"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D90" s="11" t="n">
+      <c r="C90" s="20">
+        <v>16</v>
+      </c>
+      <c r="D90" s="12">
         <v>13</v>
       </c>
-      <c r="E90" s="11" t="n">
+      <c r="E90" s="12">
         <v>0</v>
       </c>
-      <c r="F90" s="11" t="n">
+      <c r="F90" s="12">
         <v>18</v>
       </c>
-      <c r="G90" s="11" t="n">
+      <c r="G90" s="12">
         <v>0</v>
       </c>
-      <c r="H90" s="11" t="n">
+      <c r="H90" s="12">
         <v>0</v>
       </c>
-      <c r="I90" s="11" t="n">
+      <c r="I90" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="15" t="s">
+      <c r="B91" s="14"/>
+      <c r="C91" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="15" t="s">
+      <c r="F91" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="s">
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="s">
+      <c r="B92" s="14"/>
+      <c r="C92" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="17" t="s">
+      <c r="B93" s="14"/>
+      <c r="C93" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="15" t="s">
+      <c r="E93" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="16"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
+      <c r="B94" s="14"/>
+      <c r="C94" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="16"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="15" t="s">
+      <c r="B95" s="14"/>
+      <c r="C95" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="16"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="s">
+      <c r="F95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
+      <c r="B96" s="14"/>
+      <c r="C96" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" s="15" t="s">
+      <c r="B97" s="14"/>
+      <c r="C97" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="16"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:I4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:C9" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.747916666666667" bottom="0.747916666666667" header="0.315277777777778" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31527777777777799" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;LEvaluation des compétences entrepreneuriales</oddHeader>
-    <oddFooter/>
   </headerFooter>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="34" man="true" max="16383" min="0"/>
-    <brk id="65" man="true" max="16383" min="0"/>
-    <brk id="97" man="true" max="16383" min="0"/>
-    <brk id="129" man="true" max="16383" min="0"/>
+    <brk id="34" max="16383" man="1"/>
+    <brk id="65" max="16383" man="1"/>
+    <brk id="97" max="16383" man="1"/>
+    <brk id="129" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="21" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="22" customWidth="1"/>
+    <col min="4" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="n">
+      <c r="B2" s="4"/>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6" t="n">
+      <c r="B3" s="4"/>
+      <c r="C3" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>115</v>
       </c>
@@ -7856,708 +8667,708 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="25" t="n">
+      <c r="B6" s="25">
         <v>6.88</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="25">
         <v>7</v>
       </c>
-      <c r="D6" s="26" t="n">
-        <f aca="false">AVERAGE(D7:D14)</f>
+      <c r="D6" s="26">
+        <f>AVERAGE(D7:D14)</f>
         <v>6.625</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="27">
         <v>7.13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="29" t="n">
+      <c r="B7" s="29">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="29">
         <v>6</v>
       </c>
-      <c r="D7" s="30" t="n">
+      <c r="D7" s="30">
         <v>6</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="29" t="n">
+      <c r="B8" s="29">
         <v>8</v>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" s="29">
         <v>7</v>
       </c>
-      <c r="D8" s="30" t="n">
+      <c r="D8" s="30">
         <v>8</v>
       </c>
-      <c r="E8" s="31" t="n">
+      <c r="E8" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="29" t="n">
+      <c r="B9" s="29">
         <v>5</v>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="C9" s="29">
         <v>5</v>
       </c>
-      <c r="D9" s="30" t="n">
+      <c r="D9" s="30">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="29" t="n">
+      <c r="B10" s="29">
         <v>8</v>
       </c>
-      <c r="C10" s="29" t="n">
+      <c r="C10" s="29">
         <v>8</v>
       </c>
-      <c r="D10" s="30" t="n">
+      <c r="D10" s="30">
         <v>6</v>
       </c>
-      <c r="E10" s="31" t="n">
+      <c r="E10" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="29" t="n">
+      <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="29">
         <v>7</v>
       </c>
-      <c r="D11" s="30" t="n">
+      <c r="D11" s="30">
         <v>5</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="29" t="n">
+      <c r="B12" s="29">
         <v>7</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="29">
         <v>6</v>
       </c>
-      <c r="D12" s="30" t="n">
+      <c r="D12" s="30">
         <v>7</v>
       </c>
-      <c r="E12" s="31" t="n">
+      <c r="E12" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="29" t="n">
+      <c r="B13" s="29">
         <v>8</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="29">
         <v>9</v>
       </c>
-      <c r="D13" s="30" t="n">
+      <c r="D13" s="30">
         <v>9</v>
       </c>
-      <c r="E13" s="31" t="n">
+      <c r="E13" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="29" t="n">
+      <c r="B14" s="29">
         <v>4</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="30" t="n">
+      <c r="D14" s="30">
         <v>6</v>
       </c>
-      <c r="E14" s="31" t="n">
+      <c r="E14" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="32" t="n">
+      <c r="B15" s="32">
         <v>7</v>
       </c>
-      <c r="C15" s="32" t="n">
+      <c r="C15" s="32">
         <v>6.14</v>
       </c>
-      <c r="D15" s="26" t="n">
-        <f aca="false">AVERAGE(D16:D22)</f>
-        <v>7.28571428571429</v>
-      </c>
-      <c r="E15" s="33" t="n">
+      <c r="D15" s="26">
+        <f>AVERAGE(D16:D22)</f>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="E15" s="33">
         <v>8.14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="29" t="n">
+      <c r="B16" s="29">
         <v>5</v>
       </c>
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="29">
         <v>6</v>
       </c>
-      <c r="D16" s="30" t="n">
+      <c r="D16" s="30">
         <v>6</v>
       </c>
-      <c r="E16" s="31" t="n">
+      <c r="E16" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="29" t="n">
+      <c r="B17" s="29">
         <v>7</v>
       </c>
-      <c r="C17" s="29" t="n">
+      <c r="C17" s="29">
         <v>7</v>
       </c>
-      <c r="D17" s="30" t="n">
+      <c r="D17" s="30">
         <v>7</v>
       </c>
-      <c r="E17" s="31" t="n">
+      <c r="E17" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="29" t="n">
+      <c r="B18" s="29">
         <v>7</v>
       </c>
-      <c r="C18" s="29" t="n">
+      <c r="C18" s="29">
         <v>7</v>
       </c>
-      <c r="D18" s="30" t="n">
+      <c r="D18" s="30">
         <v>8</v>
       </c>
-      <c r="E18" s="31" t="n">
+      <c r="E18" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="29" t="n">
+      <c r="B19" s="29">
         <v>8</v>
       </c>
-      <c r="C19" s="29" t="n">
+      <c r="C19" s="29">
         <v>7</v>
       </c>
-      <c r="D19" s="30" t="n">
+      <c r="D19" s="30">
         <v>7</v>
       </c>
-      <c r="E19" s="31" t="n">
+      <c r="E19" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="29" t="n">
+      <c r="B20" s="29">
         <v>7</v>
       </c>
-      <c r="C20" s="29" t="n">
+      <c r="C20" s="29">
         <v>4</v>
       </c>
-      <c r="D20" s="30" t="n">
+      <c r="D20" s="30">
         <v>8</v>
       </c>
-      <c r="E20" s="31" t="n">
+      <c r="E20" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="29" t="n">
+      <c r="B21" s="29">
         <v>8</v>
       </c>
-      <c r="C21" s="29" t="n">
+      <c r="C21" s="29">
         <v>6</v>
       </c>
-      <c r="D21" s="30" t="n">
+      <c r="D21" s="30">
         <v>8</v>
       </c>
-      <c r="E21" s="31" t="n">
+      <c r="E21" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="29" t="n">
+      <c r="B22" s="29">
         <v>7</v>
       </c>
-      <c r="C22" s="29" t="n">
+      <c r="C22" s="29">
         <v>6</v>
       </c>
-      <c r="D22" s="30" t="n">
+      <c r="D22" s="30">
         <v>7</v>
       </c>
-      <c r="E22" s="31" t="n">
+      <c r="E22" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="32" t="n">
+      <c r="B23" s="32">
         <v>6.8</v>
       </c>
-      <c r="C23" s="32" t="n">
+      <c r="C23" s="32">
         <v>6.2</v>
       </c>
-      <c r="D23" s="26" t="n">
-        <f aca="false">AVERAGE(D24:D28)</f>
+      <c r="D23" s="26">
+        <f>AVERAGE(D24:D28)</f>
         <v>7</v>
       </c>
-      <c r="E23" s="33" t="n">
+      <c r="E23" s="33">
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="29" t="n">
+      <c r="B24" s="29">
         <v>8</v>
       </c>
-      <c r="C24" s="29" t="n">
+      <c r="C24" s="29">
         <v>6</v>
       </c>
-      <c r="D24" s="30" t="n">
+      <c r="D24" s="30">
         <v>6</v>
       </c>
-      <c r="E24" s="31" t="n">
+      <c r="E24" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="29" t="n">
+      <c r="B25" s="29">
         <v>8</v>
       </c>
-      <c r="C25" s="29" t="n">
+      <c r="C25" s="29">
         <v>6</v>
       </c>
-      <c r="D25" s="30" t="n">
+      <c r="D25" s="30">
         <v>6</v>
       </c>
-      <c r="E25" s="31" t="n">
+      <c r="E25" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="29" t="n">
+      <c r="B26" s="29">
         <v>6</v>
       </c>
-      <c r="C26" s="29" t="n">
+      <c r="C26" s="29">
         <v>8</v>
       </c>
-      <c r="D26" s="30" t="n">
+      <c r="D26" s="30">
         <v>7</v>
       </c>
-      <c r="E26" s="31" t="n">
+      <c r="E26" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="29" t="n">
+      <c r="B27" s="29">
         <v>6</v>
       </c>
-      <c r="C27" s="29" t="n">
+      <c r="C27" s="29">
         <v>8</v>
       </c>
-      <c r="D27" s="30" t="n">
+      <c r="D27" s="30">
         <v>9</v>
       </c>
-      <c r="E27" s="31" t="n">
+      <c r="E27" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="29" t="n">
+      <c r="B28" s="29">
         <v>6</v>
       </c>
-      <c r="C28" s="29" t="n">
+      <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="30" t="n">
+      <c r="D28" s="30">
         <v>7</v>
       </c>
-      <c r="E28" s="31" t="n">
+      <c r="E28" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="32" t="n">
+      <c r="B29" s="32">
         <v>6</v>
       </c>
-      <c r="C29" s="32" t="n">
+      <c r="C29" s="32">
         <v>7.5</v>
       </c>
-      <c r="D29" s="34" t="n">
-        <f aca="false">AVERAGE(D30:D31)</f>
+      <c r="D29" s="34">
+        <f>AVERAGE(D30:D31)</f>
         <v>7</v>
       </c>
-      <c r="E29" s="33" t="n">
+      <c r="E29" s="33">
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="29" t="n">
+      <c r="B30" s="29">
         <v>7</v>
       </c>
-      <c r="C30" s="29" t="n">
+      <c r="C30" s="29">
         <v>7</v>
       </c>
-      <c r="D30" s="30" t="n">
+      <c r="D30" s="30">
         <v>7</v>
       </c>
-      <c r="E30" s="31" t="n">
+      <c r="E30" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="29" t="n">
+      <c r="B31" s="29">
         <v>5</v>
       </c>
-      <c r="C31" s="29" t="n">
+      <c r="C31" s="29">
         <v>8</v>
       </c>
-      <c r="D31" s="30" t="n">
+      <c r="D31" s="30">
         <v>7</v>
       </c>
-      <c r="E31" s="31" t="n">
+      <c r="E31" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="32" t="n">
+      <c r="B32" s="32">
         <v>7.5</v>
       </c>
-      <c r="C32" s="32" t="n">
+      <c r="C32" s="32">
         <v>8</v>
       </c>
-      <c r="D32" s="34" t="n">
-        <f aca="false">AVERAGE(D33:D34)</f>
+      <c r="D32" s="34">
+        <f>AVERAGE(D33:D34)</f>
         <v>8.5</v>
       </c>
-      <c r="E32" s="33" t="n">
+      <c r="E32" s="33">
         <v>6.5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="29" t="n">
+      <c r="B33" s="29">
         <v>8</v>
       </c>
-      <c r="C33" s="29" t="n">
+      <c r="C33" s="29">
         <v>8</v>
       </c>
-      <c r="D33" s="30" t="n">
+      <c r="D33" s="30">
         <v>8</v>
       </c>
-      <c r="E33" s="31" t="n">
+      <c r="E33" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="29" t="n">
+      <c r="B34" s="29">
         <v>7</v>
       </c>
-      <c r="C34" s="29" t="n">
+      <c r="C34" s="29">
         <v>8</v>
       </c>
-      <c r="D34" s="30" t="n">
+      <c r="D34" s="30">
         <v>9</v>
       </c>
-      <c r="E34" s="31" t="n">
+      <c r="E34" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="32" t="n">
+      <c r="B35" s="32">
         <v>6</v>
       </c>
-      <c r="C35" s="32" t="n">
+      <c r="C35" s="32">
         <v>6.5</v>
       </c>
-      <c r="D35" s="34" t="n">
-        <f aca="false">AVERAGE(D36:D37)</f>
+      <c r="D35" s="34">
+        <f>AVERAGE(D36:D37)</f>
         <v>7.5</v>
       </c>
-      <c r="E35" s="33" t="n">
+      <c r="E35" s="33">
         <v>6.5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="29" t="n">
+      <c r="B36" s="29">
         <v>6</v>
       </c>
-      <c r="C36" s="29" t="n">
+      <c r="C36" s="29">
         <v>6</v>
       </c>
-      <c r="D36" s="30" t="n">
+      <c r="D36" s="30">
         <v>8</v>
       </c>
-      <c r="E36" s="31" t="n">
+      <c r="E36" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="29" t="n">
+      <c r="B37" s="29">
         <v>6</v>
       </c>
-      <c r="C37" s="29" t="n">
+      <c r="C37" s="29">
         <v>7</v>
       </c>
-      <c r="D37" s="30" t="n">
+      <c r="D37" s="30">
         <v>7</v>
       </c>
-      <c r="E37" s="31" t="n">
+      <c r="E37" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="32" t="n">
+      <c r="B38" s="32">
         <v>7.25</v>
       </c>
-      <c r="C38" s="32" t="n">
+      <c r="C38" s="32">
         <v>8</v>
       </c>
-      <c r="D38" s="34" t="n">
-        <f aca="false">AVERAGE(D39:D42)</f>
+      <c r="D38" s="34">
+        <f>AVERAGE(D39:D42)</f>
         <v>7</v>
       </c>
-      <c r="E38" s="33" t="n">
+      <c r="E38" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="29" t="n">
+      <c r="B39" s="29">
         <v>7</v>
       </c>
-      <c r="C39" s="29" t="n">
+      <c r="C39" s="29">
         <v>8</v>
       </c>
-      <c r="D39" s="30" t="n">
+      <c r="D39" s="30">
         <v>7</v>
       </c>
-      <c r="E39" s="31" t="n">
+      <c r="E39" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="29" t="n">
+      <c r="B40" s="29">
         <v>8</v>
       </c>
-      <c r="C40" s="29" t="n">
+      <c r="C40" s="29">
         <v>8</v>
       </c>
-      <c r="D40" s="30" t="n">
+      <c r="D40" s="30">
         <v>7</v>
       </c>
-      <c r="E40" s="31" t="n">
+      <c r="E40" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="29" t="n">
+      <c r="B41" s="29">
         <v>7</v>
       </c>
-      <c r="C41" s="29" t="n">
+      <c r="C41" s="29">
         <v>9</v>
       </c>
-      <c r="D41" s="30" t="n">
+      <c r="D41" s="30">
         <v>7</v>
       </c>
-      <c r="E41" s="31" t="n">
+      <c r="E41" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="29" t="n">
+      <c r="B42" s="29">
         <v>7</v>
       </c>
-      <c r="C42" s="29" t="n">
+      <c r="C42" s="29">
         <v>7</v>
       </c>
-      <c r="D42" s="30" t="n">
+      <c r="D42" s="30">
         <v>7</v>
       </c>
-      <c r="E42" s="31" t="n">
+      <c r="E42" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="25" t="n">
+      <c r="B43" s="25">
         <v>5.67</v>
       </c>
-      <c r="C43" s="32" t="n">
+      <c r="C43" s="32">
         <v>7.67</v>
       </c>
-      <c r="D43" s="26" t="n">
-        <f aca="false">AVERAGE(D44:D46)</f>
+      <c r="D43" s="26">
+        <f>AVERAGE(D44:D46)</f>
         <v>8</v>
       </c>
-      <c r="E43" s="33" t="n">
+      <c r="E43" s="33">
         <v>7.67</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="29" t="n">
+      <c r="B44" s="29">
         <v>6</v>
       </c>
-      <c r="C44" s="29" t="n">
+      <c r="C44" s="29">
         <v>7</v>
       </c>
-      <c r="D44" s="30" t="n">
+      <c r="D44" s="30">
         <v>8</v>
       </c>
-      <c r="E44" s="31" t="n">
+      <c r="E44" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="29" t="n">
+      <c r="B45" s="29">
         <v>7</v>
       </c>
-      <c r="C45" s="29" t="n">
+      <c r="C45" s="29">
         <v>7</v>
       </c>
-      <c r="D45" s="30" t="n">
+      <c r="D45" s="30">
         <v>8</v>
       </c>
-      <c r="E45" s="31" t="n">
+      <c r="E45" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="29" t="n">
+      <c r="B46" s="29">
         <v>4</v>
       </c>
-      <c r="C46" s="29" t="n">
+      <c r="C46" s="29">
         <v>9</v>
       </c>
-      <c r="D46" s="30" t="n">
+      <c r="D46" s="30">
         <v>8</v>
       </c>
-      <c r="E46" s="31" t="n">
+      <c r="E46" s="31">
         <v>7</v>
       </c>
     </row>
@@ -8566,18 +9377,13 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C3" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>